--- a/ams/cases/5bus/pjm5bus_uced_ev.xlsx
+++ b/ams/cases/5bus/pjm5bus_uced_ev.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/Documents/work/ams/ams/cases/5bus/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/work/ams/ams/cases/5bus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8FCB684-CC0C-8844-82D1-04C096EE1391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E31544C7-DD52-954C-81B6-3AC380780F88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21600" yWindow="7420" windowWidth="21600" windowHeight="18940" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="21" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Slack" sheetId="4" r:id="rId6"/>
     <sheet name="Line" sheetId="5" r:id="rId7"/>
     <sheet name="Area" sheetId="6" r:id="rId8"/>
-    <sheet name="Region" sheetId="10" r:id="rId9"/>
+    <sheet name="Zone" sheetId="10" r:id="rId9"/>
     <sheet name="GCost" sheetId="11" r:id="rId10"/>
     <sheet name="SRCost" sheetId="18" r:id="rId11"/>
     <sheet name="SFRCost" sheetId="16" r:id="rId12"/>
@@ -991,7 +991,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1025,9 +1025,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -3532,7 +3529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+    <sheetView zoomScale="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
     </sheetView>
@@ -4036,7 +4033,7 @@
       <c r="G1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="10" t="s">
         <v>264</v>
       </c>
     </row>
@@ -4962,7 +4959,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AB94B98-B38A-EC46-833E-965628D04701}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
